--- a/data/trans_orig/P36BPD01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>364972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>341304</v>
+        <v>341572</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>380782</v>
+        <v>381561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9095739778784974</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8505898560165081</v>
+        <v>0.8512560485870758</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9489753795875809</v>
+        <v>0.9509160398302059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -762,19 +762,19 @@
         <v>331833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>312802</v>
+        <v>312509</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>344233</v>
+        <v>343837</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9227567519625944</v>
+        <v>0.9227567519625945</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8698349828933131</v>
+        <v>0.8690194573885536</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9572365866024758</v>
+        <v>0.9561360054101004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -783,19 +783,19 @@
         <v>696805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>669370</v>
+        <v>670563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>718757</v>
+        <v>718390</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9158045897612753</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.879746651149958</v>
+        <v>0.8813143235548089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9446549981735283</v>
+        <v>0.9441730569449887</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>36284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20474</v>
+        <v>19695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59952</v>
+        <v>59684</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09042602212150257</v>
+        <v>0.09042602212150261</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05102462041241913</v>
+        <v>0.04908396016979406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1494101439834919</v>
+        <v>0.1487439514129243</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -833,19 +833,19 @@
         <v>27778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15378</v>
+        <v>15774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46809</v>
+        <v>47102</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07724324803740538</v>
+        <v>0.0772432480374054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04276341339752435</v>
+        <v>0.04386399458989952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1301650171066864</v>
+        <v>0.1309805426114464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -854,19 +854,19 @@
         <v>64062</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42110</v>
+        <v>42477</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91497</v>
+        <v>90304</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08419541023872458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05534500182647177</v>
+        <v>0.05582694305501121</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1202533488500414</v>
+        <v>0.1186856764451908</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>444409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>427816</v>
+        <v>427233</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>457660</v>
+        <v>455998</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9318901642284079</v>
+        <v>0.931890164228408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8970964315112001</v>
+        <v>0.8958742308472488</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9596764327451578</v>
+        <v>0.9561915876257809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>425</v>
@@ -979,19 +979,19 @@
         <v>462233</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>448357</v>
+        <v>446990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>472746</v>
+        <v>473126</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9283464672049201</v>
+        <v>0.9283464672049202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9004789625692438</v>
+        <v>0.8977323079478319</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9494613491731988</v>
+        <v>0.9502234305234043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>707</v>
@@ -1000,19 +1000,19 @@
         <v>906642</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>886674</v>
+        <v>886109</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>925095</v>
+        <v>923487</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9300801089062291</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9095960095165434</v>
+        <v>0.9090157456182424</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9490105321552891</v>
+        <v>0.9473609455702261</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>32481</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19230</v>
+        <v>20892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49074</v>
+        <v>49657</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06810983577159202</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04032356725484225</v>
+        <v>0.04380841237421895</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1029035684887996</v>
+        <v>0.1041257691527513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -1050,19 +1050,19 @@
         <v>35677</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25164</v>
+        <v>24784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49553</v>
+        <v>50920</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0716535327950799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05053865082680147</v>
+        <v>0.0497765694765957</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09952103743075653</v>
+        <v>0.1022676920521686</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -1071,19 +1071,19 @@
         <v>68158</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>49705</v>
+        <v>51313</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>88126</v>
+        <v>88691</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06991989109377086</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05098946784471095</v>
+        <v>0.0526390544297738</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0904039904834569</v>
+        <v>0.09098425438175758</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>563435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>546647</v>
+        <v>547569</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>577798</v>
+        <v>577049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9116242325946843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8844614994642113</v>
+        <v>0.8859533296291694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9348632344084218</v>
+        <v>0.933652304297993</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>794</v>
@@ -1196,19 +1196,19 @@
         <v>583281</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>572783</v>
+        <v>571626</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>592504</v>
+        <v>592521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9375418274572549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9206672396292286</v>
+        <v>0.9188073211161555</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9523664076765388</v>
+        <v>0.9523927520013525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1292</v>
@@ -1217,19 +1217,19 @@
         <v>1146717</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1125136</v>
+        <v>1127868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1163164</v>
+        <v>1163843</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9246256929655103</v>
+        <v>0.9246256929655106</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9072245907808704</v>
+        <v>0.9094269856738667</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9378874998136602</v>
+        <v>0.9384347632972844</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>54621</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40258</v>
+        <v>41007</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71409</v>
+        <v>70487</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08837576740531571</v>
+        <v>0.08837576740531569</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0651367655915786</v>
+        <v>0.06634769570200715</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1155385005357889</v>
+        <v>0.1140466703708307</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -1267,19 +1267,19 @@
         <v>38858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29635</v>
+        <v>29618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49356</v>
+        <v>50513</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06245817254274501</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04763359232346107</v>
+        <v>0.04760724799864768</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07933276037077143</v>
+        <v>0.08119267888384453</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -1288,19 +1288,19 @@
         <v>93479</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77032</v>
+        <v>76353</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115060</v>
+        <v>112328</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07537430703448963</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06211250018633978</v>
+        <v>0.06156523670271555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0927754092191297</v>
+        <v>0.09057301432613341</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>654416</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>639848</v>
+        <v>640242</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>665986</v>
+        <v>666741</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9382981256683888</v>
+        <v>0.9382981256683885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9174098554400406</v>
+        <v>0.917974850112462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.954887286310653</v>
+        <v>0.9559700315135325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1080</v>
@@ -1413,19 +1413,19 @@
         <v>697138</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>686514</v>
+        <v>687507</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>706546</v>
+        <v>706471</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9475372885784653</v>
+        <v>0.9475372885784654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9330975819652781</v>
+        <v>0.9344471663283036</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9603238967191319</v>
+        <v>0.9602225150550265</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1702</v>
@@ -1434,19 +1434,19 @@
         <v>1351554</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1333739</v>
+        <v>1334832</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1366642</v>
+        <v>1367507</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9430411162200615</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9306108495865372</v>
+        <v>0.9313730920995106</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9535684722772314</v>
+        <v>0.9541724108363799</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>43034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31464</v>
+        <v>30709</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57602</v>
+        <v>57208</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06170187433161141</v>
+        <v>0.06170187433161139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04511271368934719</v>
+        <v>0.04402996848646785</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08259014455995943</v>
+        <v>0.08202514988753813</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -1484,19 +1484,19 @@
         <v>38599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29191</v>
+        <v>29266</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49223</v>
+        <v>48230</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05246271142153465</v>
+        <v>0.05246271142153466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03967610328086843</v>
+        <v>0.03977748494497344</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06690241803472215</v>
+        <v>0.06555283367169572</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>99</v>
@@ -1505,19 +1505,19 @@
         <v>81633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66545</v>
+        <v>65680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>99448</v>
+        <v>98355</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05695888377993844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04643152772276827</v>
+        <v>0.04582758916362004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06938915041346269</v>
+        <v>0.06862690790048948</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>581016</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>569895</v>
+        <v>570723</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>589658</v>
+        <v>590200</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9583685552086881</v>
+        <v>0.9583685552086879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9400246358026676</v>
+        <v>0.9413903599760555</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9726233951827485</v>
+        <v>0.9735183477596454</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>959</v>
@@ -1630,19 +1630,19 @@
         <v>582166</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>573623</v>
+        <v>573193</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>589316</v>
+        <v>588983</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9572263342362428</v>
+        <v>0.9572263342362431</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9431791363775969</v>
+        <v>0.9424721082308501</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9689830610116327</v>
+        <v>0.9684347846467738</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1593</v>
@@ -1651,19 +1651,19 @@
         <v>1163182</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1149863</v>
+        <v>1150087</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1174507</v>
+        <v>1174846</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9577965394443733</v>
+        <v>0.9577965394443735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9468293475436277</v>
+        <v>0.947013713728734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9671220749026388</v>
+        <v>0.9674013327418095</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>25239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16597</v>
+        <v>16055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36360</v>
+        <v>35532</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04163144479131189</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02737660481725131</v>
+        <v>0.02648165224035466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05997536419733254</v>
+        <v>0.0586096400239445</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -1701,19 +1701,19 @@
         <v>26014</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18864</v>
+        <v>19197</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34557</v>
+        <v>34987</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04277366576375698</v>
+        <v>0.04277366576375699</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03101693898836739</v>
+        <v>0.0315652153532263</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05682086362240308</v>
+        <v>0.05752789176914981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>68</v>
@@ -1722,19 +1722,19 @@
         <v>51253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39928</v>
+        <v>39589</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64572</v>
+        <v>64348</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04220346055562663</v>
+        <v>0.04220346055562664</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03287792509736116</v>
+        <v>0.03259866725819036</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05317065245637206</v>
+        <v>0.0529862862712658</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>392070</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>383883</v>
+        <v>384773</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>397138</v>
+        <v>397961</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.963127406885987</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9430166982734723</v>
+        <v>0.9452034163194032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.975576257656212</v>
+        <v>0.9775978201332537</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>794</v>
@@ -1847,19 +1847,19 @@
         <v>421189</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>414306</v>
+        <v>414608</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>426355</v>
+        <v>426217</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9590661577183819</v>
+        <v>0.9590661577183818</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9433927483775919</v>
+        <v>0.9440802315920004</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9708291546526898</v>
+        <v>0.9705156271417195</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1344</v>
@@ -1868,19 +1868,19 @@
         <v>813259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>802732</v>
+        <v>802640</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>821413</v>
+        <v>821182</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9610197886650207</v>
+        <v>0.961019788665021</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9485803080565963</v>
+        <v>0.9484707998437353</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.970654635934471</v>
+        <v>0.9703826573711761</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>15010</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9942</v>
+        <v>9119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23197</v>
+        <v>22307</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03687259311401311</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02442374234378796</v>
+        <v>0.02240217986674638</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05698330172652731</v>
+        <v>0.05479658368059676</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1918,19 +1918,19 @@
         <v>17977</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12811</v>
+        <v>12949</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24860</v>
+        <v>24558</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04093384228161823</v>
+        <v>0.04093384228161822</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02917084534731009</v>
+        <v>0.0294843728582803</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05660725162240814</v>
+        <v>0.05591976840799939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -1939,19 +1939,19 @@
         <v>32987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24833</v>
+        <v>25064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43514</v>
+        <v>43606</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03898021133497912</v>
+        <v>0.03898021133497913</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02934536406552876</v>
+        <v>0.0296173426288238</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05141969194340335</v>
+        <v>0.05152920015626441</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>298298</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>291855</v>
+        <v>292016</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>302552</v>
+        <v>302587</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9669297902953986</v>
+        <v>0.9669297902953988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9460448635681221</v>
+        <v>0.9465670910734056</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9807201924652802</v>
+        <v>0.9808323840924885</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>849</v>
@@ -2064,19 +2064,19 @@
         <v>446340</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>438836</v>
+        <v>439741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>451468</v>
+        <v>451754</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9606785730162803</v>
+        <v>0.9606785730162802</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9445266141888976</v>
+        <v>0.9464756387987898</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9717168336164705</v>
+        <v>0.9723324931017154</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1291</v>
@@ -2085,19 +2085,19 @@
         <v>744638</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>735476</v>
+        <v>736364</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>752321</v>
+        <v>752171</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9631730464916385</v>
+        <v>0.9631730464916388</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9513219100627213</v>
+        <v>0.9524712197174702</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9731112763565355</v>
+        <v>0.9729167738003304</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>10202</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5948</v>
+        <v>5913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16645</v>
+        <v>16484</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03307020970460116</v>
+        <v>0.03307020970460117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01927980753471989</v>
+        <v>0.01916761590751149</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05395513643187831</v>
+        <v>0.05343290892659459</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -2135,19 +2135,19 @@
         <v>18269</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13141</v>
+        <v>12855</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25773</v>
+        <v>24868</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03932142698371967</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02828316638352961</v>
+        <v>0.0276675068982848</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05547338581110289</v>
+        <v>0.05352436120121057</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -2156,19 +2156,19 @@
         <v>28471</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20788</v>
+        <v>20938</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37633</v>
+        <v>36745</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03682695350836131</v>
+        <v>0.03682695350836132</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02688872364346423</v>
+        <v>0.02708322619966941</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04867808993727862</v>
+        <v>0.04752878028252953</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>3298616</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3262981</v>
+        <v>3261627</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3332419</v>
+        <v>3329719</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9383096611965812</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9281728959894934</v>
+        <v>0.9277878877554724</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9479250832364347</v>
+        <v>0.9471569194369982</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5093</v>
@@ -2281,19 +2281,19 @@
         <v>3524181</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3496994</v>
+        <v>3495096</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3548679</v>
+        <v>3548290</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.945491899269591</v>
+        <v>0.9454918992695911</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9381978510372525</v>
+        <v>0.9376886563649253</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9520643329215916</v>
+        <v>0.9519599897092575</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8278</v>
@@ -2302,19 +2302,19 @@
         <v>6822797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6781534</v>
+        <v>6777569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6869244</v>
+        <v>6863772</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.94200582616819</v>
+        <v>0.9420058261681897</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9363086974335911</v>
+        <v>0.9357612796942113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9484185179452294</v>
+        <v>0.9476630692410426</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>216872</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>183069</v>
+        <v>185769</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>252507</v>
+        <v>253861</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06169033880341876</v>
+        <v>0.06169033880341875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05207491676356502</v>
+        <v>0.05284308056300176</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07182710401050675</v>
+        <v>0.07221211224452735</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>264</v>
@@ -2352,19 +2352,19 @@
         <v>203171</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>178673</v>
+        <v>179062</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>230358</v>
+        <v>232256</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05450810073040889</v>
+        <v>0.0545081007304089</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0479356670784085</v>
+        <v>0.04804001029074264</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06180214896274736</v>
+        <v>0.06231134363507459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>443</v>
@@ -2373,19 +2373,19 @@
         <v>420043</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>373596</v>
+        <v>379068</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>461306</v>
+        <v>465271</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05799417383181026</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05158148205477067</v>
+        <v>0.05233693075895744</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0636913025664089</v>
+        <v>0.06423872030578881</v>
       </c>
     </row>
     <row r="27">
